--- a/src/main/webapp/学生基本信息模板表.xlsx
+++ b/src/main/webapp/学生基本信息模板表.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="output" r:id="rId3" sheetId="1"/>
+    <sheet name="学生基本信息表" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t/>
   </si>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>联系方式</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>20171091****</t>
+  </si>
+  <si>
+    <t>河南工程学校</t>
+  </si>
+  <si>
+    <t>计算机学院</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>13211111111</t>
   </si>
 </sst>
 </file>
@@ -122,6 +146,17 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="16.0" customWidth="true"/>
+    <col min="3" max="3" width="16.0" customWidth="true"/>
+    <col min="4" max="4" width="16.0" customWidth="true"/>
+    <col min="5" max="5" width="16.0" customWidth="true"/>
+    <col min="6" max="6" width="24.0" customWidth="true"/>
+    <col min="7" max="7" width="8.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="16.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -150,6 +185,35 @@
       </c>
       <c r="I1" t="s" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
